--- a/benchmarks/cscs2022/xlsx/Random/160.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/160.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5BD2F3-FFAF-41B3-A872-32DC289B0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E3A1C-98BC-4423-8888-3D2FBC6E8871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>63.711911357340725</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>63.627969445143954</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>21.237303785780238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>27.197179551750189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>49.86149584487535</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>61.949131201208765</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>40.292117854444726</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>41.551246537396118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>78.317804079576931</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>36.011080332409975</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>67.069587845211103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>10.576680936791739</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>38.361453873919245</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>79.325107025938053</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>77.98203643078989</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>39.116931083690083</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>65.222865776882401</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>49.273902459498025</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>77.058675396625532</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>12.255519180726937</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>24.120709807671876</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>61.311231537562428</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>61.523748804590369</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>45.691212411008394</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>48.666454149399634</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>104.02720221017958</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>105.40856444586123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>6.0567421102964616</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>89.682286685793215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>68.218042715970682</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>34.95909042609712</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>2.6564658378493253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>55.36074806077994</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>7.4381043459781111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>69.705663585166292</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>43.247263840187017</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>7.7568802465200299</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>55.041972160238018</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>58.442248432685155</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>50.685368186165128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>7.4861144651050466</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>80.536102390726882</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>76.068582468002901</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>0.12074378169524269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>55.542139579811639</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>34.291234001448927</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>116.27626177251872</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>74.981888432745706</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>33.566771311277471</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>102.3907268775658</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>67.737261531031152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>19.801980198019802</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>9.4180149722289297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>27.650326008210577</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>14.127022458343395</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>3.622313450857281</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>62.18304757304999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>65.684617242212028</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>94.783868630765511</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>53.730982854383001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2">
-        <v>25.555041628122112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="2">
-        <v>89.037927844588353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2">
-        <v>96.322849213691029</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2">
-        <v>51.456984273820538</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2">
-        <v>42.784458834412575</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>29.024051803885289</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2">
-        <v>70.65217391304347</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2">
-        <v>36.65587419056429</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2">
-        <v>19.195189639222942</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>51.225716928769657</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2">
-        <v>100.71692876965773</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>55.735430157261796</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2">
-        <v>58.51063829787234</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2">
-        <v>52.497687326549489</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>55.966697502312677</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>25.670675300647549</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>25.670675300647549</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>49.49121184088807</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2">
-        <v>29.833487511563366</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2">
-        <v>33.996299722479186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="2">
-        <v>29.082550469718168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>57.365580651609037</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="2">
-        <v>30.881471117329603</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="2">
-        <v>74.955026983809702</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2">
-        <v>4.39736158305017</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>28.283030181890865</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="2">
-        <v>16.9898061163302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="2">
-        <v>99.640215870477704</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2091,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="2">
-        <v>68.159104537277642</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>77.453527883270041</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>50.469718169098535</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2">
-        <v>34.779132520487707</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2">
-        <v>21.08734759144513</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>48.07115730561663</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2">
-        <v>79.952028782730366</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="2">
-        <v>84.649210473715783</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="2">
-        <v>13.292024785128923</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="2">
-        <v>53.867679392364579</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="2">
-        <v>59.064561263242055</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>67.559464321407148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2259,7 +2259,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="2">
-        <v>78.931572629051615</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="D102" s="2">
-        <v>99.339735894357744</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="2">
-        <v>72.629051620648255</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="D104" s="2">
-        <v>39.015606242496993</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>7.8031212484993997</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>14</v>
       </c>
       <c r="D106" s="2">
-        <v>16.106442577030812</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,7 +2343,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="2">
-        <v>38.915566226490597</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="2">
-        <v>24.109643857543016</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="2">
-        <v>69.327731092436977</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="D110" s="2">
-        <v>69.027611044417768</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="D111" s="2">
-        <v>64.425770308123248</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="2">
-        <v>14.005602240896359</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="2">
-        <v>19.107643057222891</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="2">
-        <v>94.437775110044015</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="D115" s="2">
-        <v>68.927571028411364</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="D116" s="2">
-        <v>60.224089635854341</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="2">
-        <v>51.320528211284518</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="2">
-        <v>51.320528211284518</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
         <v>14</v>
       </c>
       <c r="D119" s="2">
-        <v>12.10484193677471</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2525,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2">
-        <v>48.919567827130855</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="2">
-        <v>80.880403076107143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="D122" s="2">
-        <v>51.445239989392732</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="2">
-        <v>6.6295412357464869</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="2">
-        <v>82.825068505259438</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="D125" s="2">
-        <v>54.627419782551051</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="2">
-        <v>74.427649606647222</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="D127" s="2">
-        <v>42.163882259347652</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="2">
-        <v>32.794130646159282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="D129" s="2">
-        <v>78.316980464951826</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2665,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="D130" s="2">
-        <v>10.342084327764518</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2679,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="2">
-        <v>44.020153805356671</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="D132" s="2">
-        <v>78.582162114381688</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
         <v>15</v>
       </c>
       <c r="D133" s="2">
-        <v>42.252276142490942</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="2">
-        <v>66.914169539467864</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2735,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>35.534341023601165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>31.910191814726424</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="2">
-        <v>42.782639441350661</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="D138" s="2">
-        <v>80.526827543533997</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="2">
-        <v>15.292141783788562</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>15</v>
       </c>
       <c r="D140" s="2">
-        <v>47.732696897374701</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="D141" s="2">
-        <v>5.8388072150974875</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
         <v>16</v>
       </c>
       <c r="D142" s="2">
-        <v>42.331352309456783</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2847,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="2">
-        <v>83.724324887915756</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="2">
-        <v>45.355020331560837</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,7 +2875,7 @@
         <v>16</v>
       </c>
       <c r="D145" s="2">
-        <v>58.596600980085498</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
         <v>16</v>
       </c>
       <c r="D146" s="2">
-        <v>43.999582942341775</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="D147" s="2">
-        <v>14.701282452299031</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2917,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="D148" s="2">
-        <v>31.383588781148998</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>8.3411531644249806</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="D150" s="2">
-        <v>90.918569492232308</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2959,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>72.046710457720778</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>16</v>
       </c>
       <c r="D152" s="2">
-        <v>91.7526848086748</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2987,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="D153" s="2">
-        <v>4.1705765822124903</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>79.240955062037315</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3015,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>27.942863100823686</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>16</v>
       </c>
       <c r="D156" s="2">
-        <v>51.089563132103017</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
         <v>16</v>
       </c>
       <c r="D157" s="2">
-        <v>1.146908560108435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="D158" s="2">
-        <v>103.95162131164633</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>44.416640600563028</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="D160" s="2">
-        <v>99.051193827546655</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
